--- a/REVER_DailyTracker_20200610.xlsx
+++ b/REVER_DailyTracker_20200610.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFBEAA4-8221-41B3-817A-F876A1E3B29D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70792E4-A154-4242-B276-C90E2A7B00E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,7 @@
     <sheet name="Prabu" sheetId="11" r:id="rId7"/>
     <sheet name="Ram" sheetId="12" r:id="rId8"/>
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
-    <sheet name="Nirmal" sheetId="17" r:id="rId10"/>
-    <sheet name="Mathes" sheetId="13" r:id="rId11"/>
+    <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="71">
   <si>
     <t>Task</t>
   </si>
@@ -67,9 +66,25 @@
     <t>% of completion</t>
   </si>
   <si>
+    <t>RPA Dotnet</t>
+  </si>
+  <si>
+    <t>[Backend] CRM</t>
+  </si>
+  <si>
     <t>Hold</t>
   </si>
   <si>
+    <t>DotnetAPP</t>
+  </si>
+  <si>
+    <t>Loginpage (Frontend)</t>
+  </si>
+  <si>
+    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
+if any changes or modification can be done.</t>
+  </si>
+  <si>
     <t>29/04/2020</t>
   </si>
   <si>
@@ -88,10 +103,151 @@
     <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
   </si>
   <si>
-    <t>RPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selenium- Psummary  completed. Pdetail - working </t>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website design- Business page </t>
+  </si>
+  <si>
+    <t>Website design- Contact page &amp; Business page popup</t>
+  </si>
+  <si>
+    <t>DOTNET APP</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Muji Multi Language(Resource Changing)</t>
+  </si>
+  <si>
+    <t>Hit Counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hit Counter, UserPresentation </t>
+  </si>
+  <si>
+    <t>UserPresentation Chages Completed and design Chages</t>
+  </si>
+  <si>
+    <t>Retrive Values for DB  and Ui Design</t>
+  </si>
+  <si>
+    <t>tblDeploySchedule, tblDeployStatu, SubnetController, DeploySchedulesController, FoldersController, FormatsController, HomeController, StoreGroupFoldersController, StoreGroupsController, StreamServersController, StreamServerSubnetsController, VideoFilesController, StreamServerFormats</t>
+  </si>
+  <si>
+    <t>tblFolder, tblFolder, tblStreamServer, tblStreamServerSubnet, DeployLogs, DeploySchedules, DeployStatus, Formats, Shared, StoreMst, StoreSubnets, StreamServers, StreamServerSubnets, Subnets, VideoFiles</t>
+  </si>
+  <si>
+    <t>Hit Counter, SocialMedia</t>
+  </si>
+  <si>
+    <t>Retrive table Values for DB  and Ui Design</t>
+  </si>
+  <si>
+    <t>Hit Counter Design Changes Completed, SocialMedia Working</t>
+  </si>
+  <si>
+    <t>CountDrs Testing</t>
+  </si>
+  <si>
+    <t>Matching Values for all centers ssc1-ssc8</t>
+  </si>
+  <si>
+    <t>Mobile Srevice Centers , SocialMedia</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Insert table values</t>
+  </si>
+  <si>
+    <t>retrive db and css design</t>
+  </si>
+  <si>
+    <t>GridView Show the table, Delete</t>
+  </si>
+  <si>
+    <t>Social Media, Count Drs Verified</t>
+  </si>
+  <si>
+    <t>PowerPoint Presentation design and dynamic download</t>
+  </si>
+  <si>
+    <t>Testing RPA_Sales Application</t>
+  </si>
+  <si>
+    <t>Login Page, User Management, Video Management, PPT Management</t>
+  </si>
+  <si>
+    <t>RPA_Sales Application (Language Changing), GSPN Password Changing</t>
+  </si>
+  <si>
+    <t>Login Page, User Management, CRM, SocialMedia, Task Management, Video Management, PPT Management, Dashboard, RPA Sample Reports</t>
+  </si>
+  <si>
+    <t>QMVQR, DOTNET APP</t>
+  </si>
+  <si>
+    <t>PO_Confirmaion data check to verification Completed, RPA_Sales language Resource changing</t>
+  </si>
+  <si>
+    <t>Count Drs data check complted</t>
+  </si>
+  <si>
+    <t>RPA_Sales(CRUD Operations)</t>
+  </si>
+  <si>
+    <t>GridView Show the table, Insert the values</t>
+  </si>
+  <si>
+    <t>QMVAR PO_Confirmaion, RPA_Sales(Hold)</t>
+  </si>
+  <si>
+    <t>Edit, Delete the Records Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVQR, </t>
+  </si>
+  <si>
+    <t>RPASales LAnguage (Resource Changing)</t>
+  </si>
+  <si>
+    <t>Client Menu Changes Completed</t>
+  </si>
+  <si>
+    <t>Admin Menu Changes Completed</t>
+  </si>
+  <si>
+    <t>SSC10 Adding RPA tasks</t>
+  </si>
+  <si>
+    <t>DRS, Warranty, Purches Order (Summary, Details), Good Receiving (Summary, Details)</t>
+  </si>
+  <si>
+    <t>RPASales Language (Testing and Designing)</t>
+  </si>
+  <si>
+    <t>RPA Application</t>
+  </si>
+  <si>
+    <t>SSC10 Adding RPA tasks, RPA_Sales integration japanease code</t>
+  </si>
+  <si>
+    <t>Monthly Tasks, 10 days Completed</t>
+  </si>
+  <si>
+    <t>Adding Scheduler ssc10</t>
+  </si>
+  <si>
+    <t>SSC10 Adding Scneduler</t>
+  </si>
+  <si>
+    <t>DOTNET APP, RPA Applicatoin</t>
   </si>
 </sst>
 </file>
@@ -141,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +331,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,9 +385,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -235,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -252,6 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -273,21 +434,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +774,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -641,14 +809,28 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -701,7 +883,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -711,117 +893,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -868,13 +939,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -883,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -937,7 +1008,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -996,10 +1067,10 @@
         <v>43950</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="7">
         <v>0.3</v>
@@ -1017,10 +1088,10 @@
         <v>43951</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="7">
         <v>0.5</v>
@@ -1072,7 +1143,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1254,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1365,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1305,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1346,28 +1417,68 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23">
-        <v>43992</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="24">
-        <v>0.85</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>3</v>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43956</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
@@ -1380,33 +1491,36 @@
     <row r="14" spans="1:7" s="4" customFormat="1"/>
     <row r="15" spans="1:7" s="4" customFormat="1"/>
     <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +1631,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1528,17 +1642,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
@@ -1569,66 +1683,692 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43951</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22">
+        <v>43956</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
+      <c r="B6" s="22">
+        <v>43957</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
+      <c r="B7" s="22">
+        <v>43958</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="24">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22">
+        <v>43959</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="24">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22">
+        <v>43962</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="24">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22">
+        <v>43963</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="24">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22">
+        <v>43964</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="24">
         <v>10</v>
+      </c>
+      <c r="B12" s="22">
+        <v>43965</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="24">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22">
+        <v>43966</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="24">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22">
+        <v>43969</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="24">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22">
+        <v>43970</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16" s="24">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22">
+        <v>43971</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17" s="24">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22">
+        <v>43972</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="24">
+        <v>16</v>
+      </c>
+      <c r="B18" s="22">
+        <v>43973</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="24">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22">
+        <v>43977</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1">
+      <c r="A20" s="24">
+        <v>18</v>
+      </c>
+      <c r="B20" s="22">
+        <v>43978</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="24">
+        <v>19</v>
+      </c>
+      <c r="B21" s="22">
+        <v>43979</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="24">
+        <v>20</v>
+      </c>
+      <c r="B22" s="22">
+        <v>43980</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="25">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="29">
+        <v>21</v>
+      </c>
+      <c r="B24" s="22">
+        <v>43983</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="29">
+        <v>22</v>
+      </c>
+      <c r="B25" s="22">
+        <v>43984</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="29">
+        <v>23</v>
+      </c>
+      <c r="B26" s="22">
+        <v>43985</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="29">
+        <v>24</v>
+      </c>
+      <c r="B27" s="22">
+        <v>43986</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="25">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="29">
+        <v>25</v>
+      </c>
+      <c r="B28" s="22">
+        <v>43987</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="22">
+        <v>43990</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="29">
+        <v>27</v>
+      </c>
+      <c r="B30" s="22">
+        <v>43991</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="25">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="29">
+        <v>28</v>
+      </c>
+      <c r="B31" s="22">
+        <v>43992</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="25">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="C45" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="8"/>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="9"/>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="10"/>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="11"/>
+      <c r="C49" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +2479,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +2590,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200610.xlsx
+++ b/REVER_DailyTracker_20200610.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70792E4-A154-4242-B276-C90E2A7B00E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -25,8 +19,8 @@
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="74">
   <si>
     <t>Task</t>
   </si>
@@ -248,12 +242,21 @@
   </si>
   <si>
     <t>DOTNET APP, RPA Applicatoin</t>
+  </si>
+  <si>
+    <t>Asls</t>
+  </si>
+  <si>
+    <t>Migration work</t>
+  </si>
+  <si>
+    <t>wip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -459,7 +462,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -517,7 +520,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -569,7 +572,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -763,29 +766,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -809,7 +812,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -893,22 +896,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1018,22 +1021,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1059,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1080,7 +1083,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1153,22 +1156,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1195,12 +1198,24 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43992</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1264,22 +1279,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1375,22 +1390,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1530,22 +1545,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1641,22 +1656,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2378,22 +2393,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2489,22 +2504,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/REVER_DailyTracker_20200610.xlsx
+++ b/REVER_DailyTracker_20200610.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B208147C-58D7-407E-A747-81FDE8D7A5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -19,8 +25,8 @@
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="76">
   <si>
     <t>Task</t>
   </si>
@@ -251,12 +257,18 @@
   </si>
   <si>
     <t>wip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on Pdetail for </t>
+  </si>
+  <si>
+    <t>Purchase detail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -462,7 +474,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -766,29 +778,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -812,7 +824,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -896,22 +908,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1021,22 +1033,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1062,7 +1074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1083,7 +1095,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1156,22 +1168,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1279,22 +1291,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1323,9 +1335,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.7</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1390,22 +1408,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1545,22 +1563,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1656,22 +1674,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2393,22 +2411,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2504,22 +2522,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/REVER_DailyTracker_20200610.xlsx
+++ b/REVER_DailyTracker_20200610.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B208147C-58D7-407E-A747-81FDE8D7A5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD49D131-9381-4E2E-9D53-BA34D4B8C4E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="76">
   <si>
     <t>Task</t>
   </si>
@@ -100,9 +100,6 @@
     <t>MujiStore</t>
   </si>
   <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
     <t>Hayaai</t>
   </si>
   <si>
@@ -263,6 +260,9 @@
   </si>
   <si>
     <t>Purchase detail</t>
+  </si>
+  <si>
+    <t>Media file approval</t>
   </si>
 </sst>
 </file>
@@ -272,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +309,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -410,7 +417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -471,6 +478,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -584,7 +595,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -792,15 +803,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -824,7 +835,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -915,15 +926,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1036,19 +1047,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1074,46 +1085,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>43950</v>
+        <v>43992</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1175,15 +1176,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1217,16 +1218,16 @@
         <v>43992</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E2" s="7">
         <v>0.02</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1294,19 +1295,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1336,10 +1337,10 @@
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="7">
         <v>0.7</v>
@@ -1415,15 +1416,15 @@
       <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1478,10 +1479,10 @@
         <v>43955</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -1499,10 +1500,10 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7">
         <v>0.6</v>
@@ -1570,15 +1571,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1681,15 +1682,15 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1723,10 +1724,10 @@
         <v>43951</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E2" s="7">
         <v>0.7</v>
@@ -1735,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1746,10 +1747,10 @@
         <v>43955</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -1767,10 +1768,10 @@
         <v>43955</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7">
         <v>0.4</v>
@@ -1779,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
@@ -1790,10 +1791,10 @@
         <v>43956</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -1811,10 +1812,10 @@
         <v>43957</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7">
         <v>0.5</v>
@@ -1823,7 +1824,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
@@ -1834,10 +1835,10 @@
         <v>43958</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="25">
         <v>1</v>
@@ -1846,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
@@ -1857,10 +1858,10 @@
         <v>43959</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="28">
         <v>0.3</v>
@@ -1869,7 +1870,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
@@ -1880,10 +1881,10 @@
         <v>43962</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="28">
         <v>0.3</v>
@@ -1892,7 +1893,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
@@ -1903,10 +1904,10 @@
         <v>43963</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -1924,10 +1925,10 @@
         <v>43964</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="28">
         <v>0.6</v>
@@ -1936,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
@@ -1947,10 +1948,10 @@
         <v>43965</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="28">
         <v>1</v>
@@ -1959,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
@@ -1970,10 +1971,10 @@
         <v>43966</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="7">
         <v>0.3</v>
@@ -1982,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1">
@@ -1993,10 +1994,10 @@
         <v>43969</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="28">
         <v>0.3</v>
@@ -2005,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1">
@@ -2016,10 +2017,10 @@
         <v>43970</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="28">
         <v>0.3</v>
@@ -2028,7 +2029,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1">
@@ -2039,10 +2040,10 @@
         <v>43971</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="28">
         <v>1</v>
@@ -2051,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1">
@@ -2062,10 +2063,10 @@
         <v>43972</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="28">
         <v>1</v>
@@ -2083,10 +2084,10 @@
         <v>43973</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="28">
         <v>0.5</v>
@@ -2095,7 +2096,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1">
@@ -2106,10 +2107,10 @@
         <v>43977</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="28">
         <v>1</v>
@@ -2118,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1">
@@ -2129,10 +2130,10 @@
         <v>43978</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="7">
         <v>0.3</v>
@@ -2141,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2152,10 +2153,10 @@
         <v>43979</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="7">
         <v>0.5</v>
@@ -2164,7 +2165,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2175,10 +2176,10 @@
         <v>43980</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="25">
         <v>1</v>
@@ -2187,7 +2188,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2207,10 +2208,10 @@
         <v>43983</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="25">
         <v>0.5</v>
@@ -2219,7 +2220,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2230,10 +2231,10 @@
         <v>43984</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="25">
         <v>1</v>
@@ -2242,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2253,10 +2254,10 @@
         <v>43985</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="25">
         <v>0.5</v>
@@ -2274,10 +2275,10 @@
         <v>43986</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="25">
         <v>1</v>
@@ -2294,10 +2295,10 @@
         <v>43987</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="25">
         <v>0.5</v>
@@ -2306,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2317,10 +2318,10 @@
         <v>43990</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" s="25">
         <v>0.9</v>
@@ -2329,7 +2330,7 @@
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2340,10 +2341,10 @@
         <v>43991</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="25">
         <v>1</v>
@@ -2360,10 +2361,10 @@
         <v>43992</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="25">
         <v>1</v>
@@ -2372,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -2418,15 +2419,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2529,15 +2530,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
